--- a/output/risk/BRN_osm_tc_EC-Earth3P-HR_risk.xlsx
+++ b/output/risk/BRN_osm_tc_EC-Earth3P-HR_risk.xlsx
@@ -547,67 +547,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.308199929936335e-08</v>
+        <v>0.0002613836608625687</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261639985987267e-07</v>
+        <v>0.0005227673217251374</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154099964968168e-07</v>
+        <v>0.001306918304312844</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853343590049637e-13</v>
+        <v>5.689106774013116e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570668718009927e-12</v>
+        <v>1.137821354802623e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>3.926671795024819e-12</v>
+        <v>2.844553387006558e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>5.915233501568305e-13</v>
+        <v>3.01847205585438e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.183046700313661e-12</v>
+        <v>6.03694411170876e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.957616750784153e-12</v>
+        <v>1.50923602792719e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.597639316848511e-12</v>
+        <v>8.057042106980676e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>7.195278633697021e-12</v>
+        <v>1.611408421396135e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.798819658424256e-11</v>
+        <v>4.028521053490339e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.005889426806872e-13</v>
+        <v>1.340734678257388e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.011778853613743e-13</v>
+        <v>2.681469356514775e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.002944713403437e-12</v>
+        <v>6.703673391286938e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>269248.2975980715</v>
+        <v>304112.3102332038</v>
       </c>
       <c r="R2" t="n">
-        <v>538496.5951961429</v>
+        <v>608224.6204664075</v>
       </c>
       <c r="S2" t="n">
-        <v>1346241.487990358</v>
+        <v>1520561.551166019</v>
       </c>
       <c r="T2" t="n">
-        <v>194230.7795752701</v>
+        <v>259701.3663334413</v>
       </c>
       <c r="U2" t="n">
-        <v>388461.5591505402</v>
+        <v>519402.7326668826</v>
       </c>
       <c r="V2" t="n">
-        <v>971153.8978763504</v>
+        <v>1298506.831667206</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +617,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.731149947452252e-08</v>
+        <v>0.0001960377456469266</v>
       </c>
       <c r="C3" t="n">
-        <v>9.462299894904505e-08</v>
+        <v>0.0003920754912938531</v>
       </c>
       <c r="D3" t="n">
-        <v>2.365574973726126e-07</v>
+        <v>0.0009801887282346329</v>
       </c>
       <c r="E3" t="n">
-        <v>5.890007692537229e-13</v>
+        <v>4.266830080509837e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178001538507446e-12</v>
+        <v>8.533660161019674e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.945003846268614e-12</v>
+        <v>2.133415040254918e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>4.436425126176229e-13</v>
+        <v>2.263854041890785e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>8.872850252352458e-13</v>
+        <v>4.527708083781571e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>2.218212563088114e-12</v>
+        <v>1.131927020945392e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.698229487636384e-12</v>
+        <v>6.042781580235506e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>5.396458975272768e-12</v>
+        <v>1.208556316047101e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>1.349114743818192e-11</v>
+        <v>3.021390790117753e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.004417070105154e-13</v>
+        <v>1.005551008693041e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>6.008834140210308e-13</v>
+        <v>2.011102017386082e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.502208535052577e-12</v>
+        <v>5.027755043465204e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>201936.2231985536</v>
+        <v>228084.2326749029</v>
       </c>
       <c r="R3" t="n">
-        <v>403872.4463971073</v>
+        <v>456168.4653498058</v>
       </c>
       <c r="S3" t="n">
-        <v>1009681.115992768</v>
+        <v>1140421.163374514</v>
       </c>
       <c r="T3" t="n">
-        <v>145673.0846814526</v>
+        <v>194776.024750081</v>
       </c>
       <c r="U3" t="n">
-        <v>291346.1693629051</v>
+        <v>389552.049500162</v>
       </c>
       <c r="V3" t="n">
-        <v>728365.4234072629</v>
+        <v>973880.1237504049</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +687,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885249912420421e-08</v>
+        <v>0.000326729576078211</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577049982484084e-07</v>
+        <v>0.0006534591521564219</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94262495621021e-07</v>
+        <v>0.001633647880391055</v>
       </c>
       <c r="E4" t="n">
-        <v>9.816679487562047e-13</v>
+        <v>7.111383467516394e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>1.963335897512409e-12</v>
+        <v>1.422276693503279e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.908339743781024e-12</v>
+        <v>3.555691733758197e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>7.394041876960383e-13</v>
+        <v>3.773090069817975e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.478808375392077e-12</v>
+        <v>7.546180139635951e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.697020938480192e-12</v>
+        <v>1.886545034908988e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>4.49704914606064e-12</v>
+        <v>1.007130263372585e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>8.994098292121279e-12</v>
+        <v>2.014260526745169e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>2.24852457303032e-11</v>
+        <v>5.035651316862923e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.007361783508591e-13</v>
+        <v>1.675918347821735e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.001472356701718e-12</v>
+        <v>3.351836695643469e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.503680891754295e-12</v>
+        <v>8.379591739108671e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>336560.3719975894</v>
+        <v>380140.3877915048</v>
       </c>
       <c r="R4" t="n">
-        <v>673120.7439951788</v>
+        <v>760280.7755830096</v>
       </c>
       <c r="S4" t="n">
-        <v>1682801.859987947</v>
+        <v>1900701.938957524</v>
       </c>
       <c r="T4" t="n">
-        <v>242788.4744690876</v>
+        <v>324626.7079168016</v>
       </c>
       <c r="U4" t="n">
-        <v>485576.9489381752</v>
+        <v>649253.4158336031</v>
       </c>
       <c r="V4" t="n">
-        <v>1213942.372345438</v>
+        <v>1623133.539584009</v>
       </c>
     </row>
   </sheetData>

--- a/output/risk/BRN_osm_tc_EC-Earth3P-HR_risk.xlsx
+++ b/output/risk/BRN_osm_tc_EC-Earth3P-HR_risk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,92 +451,197 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>W2_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W2_2_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W2_2_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>W2_2_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>W2_3_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>W2_3_2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W2_3_3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W2_4_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W2_4_2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>W2_4_3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_6</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W2_5_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W2_5_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W2_5_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>W2_6_1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>W2_6_2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>W2_6_3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W2_7_1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>W2_7_2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>W2_7_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_6</t>
         </is>
       </c>
     </row>
@@ -547,67 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002613836608625687</v>
+        <v>304428.5165043069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005227673217251374</v>
+        <v>188069.1724182163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001306918304312844</v>
+        <v>101476.1721681023</v>
       </c>
       <c r="E2" t="n">
-        <v>5.689106774013116e-08</v>
+        <v>63929.98846590446</v>
       </c>
       <c r="F2" t="n">
-        <v>1.137821354802623e-07</v>
+        <v>53782.37124909422</v>
       </c>
       <c r="G2" t="n">
-        <v>2.844553387006558e-07</v>
+        <v>36193.16807328982</v>
       </c>
       <c r="H2" t="n">
-        <v>3.01847205585438e-08</v>
+        <v>234553.2272880917</v>
       </c>
       <c r="I2" t="n">
-        <v>6.03694411170876e-08</v>
+        <v>144901.7715246433</v>
       </c>
       <c r="J2" t="n">
-        <v>1.50923602792719e-07</v>
+        <v>78184.40909603059</v>
       </c>
       <c r="K2" t="n">
-        <v>8.057042106980676e-08</v>
+        <v>49256.17773049927</v>
       </c>
       <c r="L2" t="n">
-        <v>1.611408421396135e-07</v>
+        <v>41437.73682089621</v>
       </c>
       <c r="M2" t="n">
-        <v>4.028521053490339e-07</v>
+        <v>27885.77257758424</v>
       </c>
       <c r="N2" t="n">
-        <v>1.340734678257388e-08</v>
+        <v>158976.8405310131</v>
       </c>
       <c r="O2" t="n">
-        <v>2.681469356514775e-08</v>
+        <v>98212.35926138147</v>
       </c>
       <c r="P2" t="n">
-        <v>6.703673391286938e-08</v>
+        <v>52992.28017700439</v>
       </c>
       <c r="Q2" t="n">
-        <v>304112.3102332038</v>
+        <v>33385.13651151276</v>
       </c>
       <c r="R2" t="n">
-        <v>608224.6204664075</v>
+        <v>28085.90849381232</v>
       </c>
       <c r="S2" t="n">
-        <v>1520561.551166019</v>
+        <v>18900.57992979823</v>
       </c>
       <c r="T2" t="n">
-        <v>259701.3663334413</v>
+        <v>108511.0695742255</v>
       </c>
       <c r="U2" t="n">
-        <v>519402.7326668826</v>
+        <v>67035.72742585489</v>
       </c>
       <c r="V2" t="n">
-        <v>1298506.831667206</v>
+        <v>36170.35652474185</v>
+      </c>
+      <c r="W2" t="n">
+        <v>22787.32461058737</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19170.28895811317</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12900.76049382459</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>87803.04763319166</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>54242.77164894952</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29267.68254439722</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>18438.64000297025</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15511.87174853053</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10438.80677416834</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>257300.0581611606</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>158954.2581528947</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>85766.68605372019</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>54033.01221384373</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>45456.3436084717</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30590.11802582687</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>111366.0432126593</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>68799.46669582068</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>37122.01440421979</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23386.86907465846</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19674.66763423649</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>13240.18513750506</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001960377456469266</v>
+        <v>228321.3873782302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003920754912938531</v>
+        <v>141051.8793136622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009801887282346329</v>
+        <v>76107.12912607673</v>
       </c>
       <c r="E3" t="n">
-        <v>4.266830080509837e-08</v>
+        <v>47947.49134942835</v>
       </c>
       <c r="F3" t="n">
-        <v>8.533660161019674e-08</v>
+        <v>40336.77843682067</v>
       </c>
       <c r="G3" t="n">
-        <v>2.133415040254918e-07</v>
+        <v>27144.87605496737</v>
       </c>
       <c r="H3" t="n">
-        <v>2.263854041890785e-08</v>
+        <v>175914.9204660688</v>
       </c>
       <c r="I3" t="n">
-        <v>4.527708083781571e-08</v>
+        <v>108676.3286434825</v>
       </c>
       <c r="J3" t="n">
-        <v>1.131927020945392e-07</v>
+        <v>58638.30682202293</v>
       </c>
       <c r="K3" t="n">
-        <v>6.042781580235506e-08</v>
+        <v>36942.13329787445</v>
       </c>
       <c r="L3" t="n">
-        <v>1.208556316047101e-07</v>
+        <v>31078.30261567215</v>
       </c>
       <c r="M3" t="n">
-        <v>3.021390790117753e-07</v>
+        <v>20914.32943318818</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005551008693041e-08</v>
+        <v>119232.6303982599</v>
       </c>
       <c r="O3" t="n">
-        <v>2.011102017386082e-08</v>
+        <v>73659.26944603609</v>
       </c>
       <c r="P3" t="n">
-        <v>5.027755043465204e-08</v>
+        <v>39744.21013275329</v>
       </c>
       <c r="Q3" t="n">
-        <v>228084.2326749029</v>
+        <v>25038.85238363457</v>
       </c>
       <c r="R3" t="n">
-        <v>456168.4653498058</v>
+        <v>21064.43137035924</v>
       </c>
       <c r="S3" t="n">
-        <v>1140421.163374514</v>
+        <v>14175.43494734867</v>
       </c>
       <c r="T3" t="n">
-        <v>194776.024750081</v>
+        <v>81383.30218066915</v>
       </c>
       <c r="U3" t="n">
-        <v>389552.049500162</v>
+        <v>50276.79556939117</v>
       </c>
       <c r="V3" t="n">
-        <v>973880.1237504049</v>
+        <v>27127.76739355638</v>
+      </c>
+      <c r="W3" t="n">
+        <v>17090.49345794052</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14377.71671858488</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9675.570370368445</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>65852.28572489377</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>40682.07873671214</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21950.76190829791</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13828.98000222769</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11633.9038113979</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7829.105080626258</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>192975.0436208704</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>119215.6936146711</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>64325.01454029014</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40524.75916038279</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34092.25770635378</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>22942.58851937015</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>83524.53240949452</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51599.6000218655</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>27841.51080316483</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17540.15180599385</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14756.00072567736</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>9930.138853128792</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000326729576078211</v>
+        <v>380535.6456303837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006534591521564219</v>
+        <v>235086.4655227704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001633647880391055</v>
+        <v>126845.2152101279</v>
       </c>
       <c r="E4" t="n">
-        <v>7.111383467516394e-08</v>
+        <v>79912.48558238056</v>
       </c>
       <c r="F4" t="n">
-        <v>1.422276693503279e-07</v>
+        <v>67227.96406136778</v>
       </c>
       <c r="G4" t="n">
-        <v>3.555691733758197e-07</v>
+        <v>45241.46009161228</v>
       </c>
       <c r="H4" t="n">
-        <v>3.773090069817975e-08</v>
+        <v>293191.5341101147</v>
       </c>
       <c r="I4" t="n">
-        <v>7.546180139635951e-08</v>
+        <v>181127.2144058042</v>
       </c>
       <c r="J4" t="n">
-        <v>1.886545034908988e-07</v>
+        <v>97730.51137003821</v>
       </c>
       <c r="K4" t="n">
-        <v>1.007130263372585e-07</v>
+        <v>61570.22216312408</v>
       </c>
       <c r="L4" t="n">
-        <v>2.014260526745169e-07</v>
+        <v>51797.17102612026</v>
       </c>
       <c r="M4" t="n">
-        <v>5.035651316862923e-07</v>
+        <v>34857.21572198029</v>
       </c>
       <c r="N4" t="n">
-        <v>1.675918347821735e-08</v>
+        <v>198721.0506637664</v>
       </c>
       <c r="O4" t="n">
-        <v>3.351836695643469e-08</v>
+        <v>122765.4490767268</v>
       </c>
       <c r="P4" t="n">
-        <v>8.379591739108671e-08</v>
+        <v>66240.35022125549</v>
       </c>
       <c r="Q4" t="n">
-        <v>380140.3877915048</v>
+        <v>41731.42063939095</v>
       </c>
       <c r="R4" t="n">
-        <v>760280.7755830096</v>
+        <v>35107.38561726541</v>
       </c>
       <c r="S4" t="n">
-        <v>1900701.938957524</v>
+        <v>23625.72491224778</v>
       </c>
       <c r="T4" t="n">
-        <v>324626.7079168016</v>
+        <v>135638.8369677819</v>
       </c>
       <c r="U4" t="n">
-        <v>649253.4158336031</v>
+        <v>83794.65928231864</v>
       </c>
       <c r="V4" t="n">
-        <v>1623133.539584009</v>
+        <v>45212.94565592732</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28484.1557632342</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23962.86119764148</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16125.95061728074</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>109753.8095414896</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>67803.46456118691</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>36584.60318049653</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>23048.30000371281</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>19389.83968566316</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13048.50846771043</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>321625.0727014508</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>198692.8226911185</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>107208.3575671503</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>67541.26526730464</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>56820.42951058962</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38237.64753228358</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>139207.5540158242</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>85999.33336977582</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>46402.51800527473</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29233.58634332308</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24593.3345427956</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>16550.23142188132</v>
       </c>
     </row>
   </sheetData>
